--- a/file3.xlsx
+++ b/file3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1989,7 +1989,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B2:B17"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="15" outlineLevelCol="4"/>
